--- a/CORP FINANCE/Corp_FInance_Case_Study.xlsx
+++ b/CORP FINANCE/Corp_FInance_Case_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Erwin\MANAJEMEN\CORP FINANCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918FBD5-F61A-4B5C-8A89-41BB6D8E0680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA390FA-ED21-4685-9E0C-0452F97D5366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="420" windowWidth="13785" windowHeight="11385" xr2:uid="{A7F3CF43-5C24-4EF8-B08C-1469242FC408}"/>
+    <workbookView xWindow="7245" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{A7F3CF43-5C24-4EF8-B08C-1469242FC408}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Asset lancar / utang lancar</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>Selisih % 2020 ke 2021</t>
+  </si>
+  <si>
+    <t>Tahun 2021</t>
+  </si>
+  <si>
+    <t>Tahun 2021%</t>
   </si>
 </sst>
 </file>
@@ -295,12 +301,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -315,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -331,6 +349,13 @@
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D8F16-53D3-4B8A-AB23-DBD6A13C91EE}">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,9 +683,10 @@
     <col min="3" max="3" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -687,7 +713,7 @@
       <c r="I1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -722,15 +748,15 @@
         <v>96.15384615384616</v>
       </c>
       <c r="H3" s="6">
-        <f>C3/C$11*100</f>
+        <f t="shared" ref="H3:H11" si="1">C3/C$11*100</f>
         <v>2.546523016650343</v>
       </c>
       <c r="I3" s="6">
-        <f>D3/D$11*100</f>
+        <f t="shared" ref="I3:I11" si="2">D3/D$11*100</f>
         <v>2.5</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K9" si="1">(I3/100)*$K$11</f>
+        <f t="shared" ref="K3:K9" si="3">(I3/100)*$K$11</f>
         <v>9794.3192948090127</v>
       </c>
     </row>
@@ -748,7 +774,7 @@
         <v>30000</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E21" si="2">(D4-C4)</f>
+        <f t="shared" ref="E4:E21" si="4">(D4-C4)</f>
         <v>-5000</v>
       </c>
       <c r="F4" s="2">
@@ -756,15 +782,15 @@
         <v>85.714285714285708</v>
       </c>
       <c r="H4" s="6">
-        <f>C4/C$11*100</f>
+        <f t="shared" si="1"/>
         <v>8.570029382957884</v>
       </c>
       <c r="I4" s="6">
-        <f>D4/D$11*100</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29382.957884427033</v>
       </c>
     </row>
@@ -782,7 +808,7 @@
         <v>40000</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-10000</v>
       </c>
       <c r="F5" s="2">
@@ -790,15 +816,15 @@
         <v>80</v>
       </c>
       <c r="H5" s="6">
-        <f>C5/C$11*100</f>
+        <f t="shared" si="1"/>
         <v>12.242899118511264</v>
       </c>
       <c r="I5" s="6">
-        <f>D5/D$11*100</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39177.277179236051</v>
       </c>
     </row>
@@ -816,7 +842,7 @@
         <v>60000</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-11000</v>
       </c>
       <c r="F6" s="2">
@@ -824,15 +850,15 @@
         <v>84.507042253521121</v>
       </c>
       <c r="H6" s="6">
-        <f>C6/C$11*100</f>
+        <f t="shared" si="1"/>
         <v>17.384916748285995</v>
       </c>
       <c r="I6" s="6">
-        <f>D6/D$11*100</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58765.915768854065</v>
       </c>
     </row>
@@ -849,7 +875,7 @@
         <v>140000</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-26400</v>
       </c>
       <c r="F7" s="2">
@@ -857,15 +883,15 @@
         <v>84.134615384615387</v>
       </c>
       <c r="H7" s="6">
-        <f>C7/C$11*100</f>
+        <f t="shared" si="1"/>
         <v>40.744368266405488</v>
       </c>
       <c r="I7" s="6">
-        <f>D7/D$11*100</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>137120.47012732615</v>
       </c>
     </row>
@@ -883,7 +909,7 @@
         <v>360000</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38000</v>
       </c>
       <c r="F8" s="2">
@@ -891,15 +917,15 @@
         <v>111.80124223602483</v>
       </c>
       <c r="H8" s="6">
-        <f>C8/C$11*100</f>
+        <f t="shared" si="1"/>
         <v>78.844270323212541</v>
       </c>
       <c r="I8" s="6">
-        <f>D8/D$11*100</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>352595.49461312441</v>
       </c>
     </row>
@@ -917,7 +943,7 @@
         <v>-100000</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-20000</v>
       </c>
       <c r="F9" s="2">
@@ -925,15 +951,15 @@
         <v>125</v>
       </c>
       <c r="H9" s="6">
-        <f>C9/C$11*100</f>
+        <f t="shared" si="1"/>
         <v>-19.588638589618022</v>
       </c>
       <c r="I9" s="6">
-        <f>D9/D$11*100</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-97943.192948090116</v>
       </c>
     </row>
@@ -951,7 +977,7 @@
         <v>260000</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="F10" s="2">
@@ -959,11 +985,11 @@
         <v>107.43801652892562</v>
       </c>
       <c r="H10" s="6">
-        <f>C10/C$11*100</f>
+        <f t="shared" si="1"/>
         <v>59.255631733594512</v>
       </c>
       <c r="I10" s="6">
-        <f>D10/D$11*100</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="K10" s="6">
@@ -984,7 +1010,7 @@
         <v>400000</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8400</v>
       </c>
       <c r="F11" s="2">
@@ -992,11 +1018,11 @@
         <v>97.943192948090115</v>
       </c>
       <c r="H11" s="6">
-        <f>C11/C$11*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I11" s="6">
-        <f>D11/D$11*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K11" s="6">
@@ -1031,7 +1057,7 @@
         <v>14000</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5400</v>
       </c>
       <c r="F14" s="2">
@@ -1039,11 +1065,11 @@
         <v>72.164948453608247</v>
       </c>
       <c r="H14" s="6">
-        <f>C14/C$21*100</f>
+        <f t="shared" ref="H14:I21" si="5">C14/C$21*100</f>
         <v>4.7502448579823708</v>
       </c>
       <c r="I14" s="6">
-        <f>D14/D$21*100</f>
+        <f t="shared" si="5"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="K14" s="6">
@@ -1065,7 +1091,7 @@
         <v>20000</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2000</v>
       </c>
       <c r="F15" s="2">
@@ -1073,15 +1099,15 @@
         <v>90.909090909090907</v>
       </c>
       <c r="H15" s="6">
-        <f>C15/C$21*100</f>
+        <f t="shared" si="5"/>
         <v>5.3868756121449559</v>
       </c>
       <c r="I15" s="6">
-        <f>D15/D$21*100</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" ref="K15:K20" si="3">(I15/100)*$K$21</f>
+        <f t="shared" ref="K15:K20" si="6">(I15/100)*$K$21</f>
         <v>19588.638589618025</v>
       </c>
     </row>
@@ -1099,7 +1125,7 @@
         <v>26000</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1000</v>
       </c>
       <c r="F16" s="2">
@@ -1107,19 +1133,19 @@
         <v>96.296296296296291</v>
       </c>
       <c r="H16" s="6">
-        <f>C16/C$21*100</f>
+        <f t="shared" si="5"/>
         <v>6.6111655239960818</v>
       </c>
       <c r="I16" s="6">
-        <f>D16/D$21*100</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25465.230166503432</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1158,7 @@
         <v>60000</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8400</v>
       </c>
       <c r="F17" s="2">
@@ -1140,19 +1166,19 @@
         <v>87.719298245614027</v>
       </c>
       <c r="H17" s="6">
-        <f>C17/C$21*100</f>
+        <f t="shared" si="5"/>
         <v>16.748285994123407</v>
       </c>
       <c r="I17" s="6">
-        <f>D17/D$21*100</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58765.915768854065</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1166,7 +1192,7 @@
         <v>140000</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4000</v>
       </c>
       <c r="F18" s="2">
@@ -1174,19 +1200,19 @@
         <v>97.222222222222214</v>
       </c>
       <c r="H18" s="6">
-        <f>C18/C$21*100</f>
+        <f t="shared" si="5"/>
         <v>35.259549461312439</v>
       </c>
       <c r="I18" s="6">
-        <f>D18/D$21*100</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>137120.47012732615</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1200,7 +1226,7 @@
         <v>120000</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F19" s="2">
@@ -1208,19 +1234,19 @@
         <v>100</v>
       </c>
       <c r="H19" s="6">
-        <f>C19/C$21*100</f>
+        <f t="shared" si="5"/>
         <v>29.382957884427029</v>
       </c>
       <c r="I19" s="6">
-        <f>D19/D$21*100</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>117531.83153770813</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1234,7 +1260,7 @@
         <v>80000</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
       <c r="F20" s="2">
@@ -1242,19 +1268,19 @@
         <v>105.26315789473684</v>
       </c>
       <c r="H20" s="6">
-        <f>C20/C$21*100</f>
+        <f t="shared" si="5"/>
         <v>18.609206660137119</v>
       </c>
       <c r="I20" s="6">
-        <f>D20/D$21*100</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>78354.554358472102</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
@@ -1267,7 +1293,7 @@
         <v>400000</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8400</v>
       </c>
       <c r="F21" s="2">
@@ -1275,11 +1301,11 @@
         <v>97.943192948090115</v>
       </c>
       <c r="H21" s="6">
-        <f>C21/C$21*100</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I21" s="6">
-        <f>D21/D$21*100</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K21" s="6">
@@ -1287,343 +1313,291 @@
         <v>391772.77179236047</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="2">
-        <v>2020</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2021</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="N23" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="J23" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="2">
-        <f>I24/1.48</f>
-        <v>405405.40540540538</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
         <v>600000</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="H24" s="6">
+        <f>E24/$E$24*100</f>
+        <v>100</v>
+      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6">
-        <f>I24/$I$24*100</f>
-        <v>100</v>
-      </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6">
         <f>1.48*K11</f>
         <v>579823.70225269347</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
+      <c r="D25" s="2">
         <v>-511000</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="G25" s="6">
+        <f>D25/$E$24*100</f>
+        <v>-85.166666666666671</v>
+      </c>
+      <c r="J25" s="6"/>
       <c r="K25" s="6">
-        <f>H25/$I$24*100</f>
-        <v>-85.166666666666671</v>
+        <f>G25*$L$24/100</f>
+        <v>-493816.51975187735</v>
       </c>
       <c r="L25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6">
-        <f>K25*$P$24/100</f>
-        <v>-493816.51975187735</v>
-      </c>
-      <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <f>I24+H25</f>
+      <c r="E26" s="2">
+        <f>E24+D25</f>
         <v>89000</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="H26" s="6">
+        <f>E26/$E$24*100</f>
+        <v>14.833333333333334</v>
+      </c>
+      <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6">
-        <f>I26/$I$24*100</f>
-        <v>14.833333333333334</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6">
-        <f>L26*$P$24/100</f>
+        <f>H26*$L$24/100</f>
         <v>86007.182500816212</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="2">
+      <c r="C28" s="2">
         <v>-4400</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="F28" s="6">
+        <f>C28/$E$24*100</f>
+        <v>-0.73333333333333328</v>
+      </c>
       <c r="J28" s="6">
-        <f>G28/$I$24*100</f>
-        <v>-0.73333333333333328</v>
+        <f>F28*$L$24/100</f>
+        <v>-4252.040483186418</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="N28" s="6">
-        <f>J28*$P$24/100</f>
-        <v>-4252.040483186418</v>
-      </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="2">
+      <c r="C29" s="2">
         <v>-8000</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="F29" s="6">
+        <f>C29/$E$24*100</f>
+        <v>-1.3333333333333335</v>
+      </c>
       <c r="J29" s="6">
-        <f>G29/$I$24*100</f>
-        <v>-1.3333333333333335</v>
+        <f>F29*$L$24/100</f>
+        <v>-7730.9826967025801</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="N29" s="6">
-        <f>J29*$P$24/100</f>
-        <v>-7730.9826967025801</v>
-      </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="2">
+      <c r="C30" s="2">
         <v>-5600</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="6">
+        <f>C30/$E$24*100</f>
+        <v>-0.93333333333333346</v>
+      </c>
       <c r="J30" s="6">
-        <f>G30/$I$24*100</f>
-        <v>-0.93333333333333346</v>
+        <f>F30*$L$24/100</f>
+        <v>-5411.6878876918063</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="N30" s="6">
-        <f>J30*$P$24/100</f>
-        <v>-5411.6878876918063</v>
-      </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="2">
+      <c r="C31" s="2">
         <v>-20000</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="6">
+        <f>C31/$E$24*100</f>
+        <v>-3.3333333333333335</v>
+      </c>
       <c r="J31" s="6">
-        <f>G31/$I$24*100</f>
-        <v>-3.3333333333333335</v>
+        <f>F31*$L$24/100</f>
+        <v>-19327.45674175645</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="N31" s="6">
-        <f>J31*$P$24/100</f>
-        <v>-19327.45674175645</v>
-      </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2">
-        <f>SUM(G28:G31)</f>
+      <c r="D32" s="2">
+        <f>SUM(C28:C31)</f>
         <v>-38000</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="G32" s="6">
+        <f>D32/$E$24*100</f>
+        <v>-6.3333333333333339</v>
+      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="6">
-        <f>H32/$I$24*100</f>
-        <v>-6.3333333333333339</v>
+        <f>G32*$L$24/100</f>
+        <v>-36722.167809337254</v>
       </c>
       <c r="L32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6">
-        <f>K32*$P$24/100</f>
-        <v>-36722.167809337254</v>
-      </c>
-      <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
-        <f>I26+H32</f>
+      <c r="E33" s="2">
+        <f>E26+D32</f>
         <v>51000</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="H33" s="6">
+        <f>E33/$E$24*100</f>
+        <v>8.5</v>
+      </c>
+      <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6">
-        <f>I33/$I$24*100</f>
-        <v>8.5</v>
-      </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6">
-        <f>L33*$P$24/100</f>
+        <f>H33*$L$24/100</f>
         <v>49285.014691478944</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2">
+      <c r="D34" s="2">
         <v>-11000</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="G34" s="6">
+        <f>D34/$E$24*100</f>
+        <v>-1.8333333333333333</v>
+      </c>
+      <c r="J34" s="6"/>
       <c r="K34" s="6">
-        <f>H34/$I$24*100</f>
-        <v>-1.8333333333333333</v>
+        <f>G34*$L$24/100</f>
+        <v>-10630.101207966045</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6">
-        <f>K34*$P$24/100</f>
-        <v>-10630.101207966045</v>
-      </c>
-      <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <f>I33+H34</f>
+      <c r="E35" s="2">
+        <f>E33+D34</f>
         <v>40000</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="H35" s="6">
+        <f>E35/$E$24*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6">
-        <f>I35/$I$24*100</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6">
-        <f>L35*$P$24/100</f>
+        <f>H35*$L$24/100</f>
         <v>38654.913483512901</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2">
-        <f>-I35*0.4</f>
+      <c r="D36" s="2">
+        <f>-E35*0.4</f>
         <v>-16000</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="G36" s="6">
+        <f>D36/$E$24*100</f>
+        <v>-2.666666666666667</v>
+      </c>
+      <c r="J36" s="6"/>
       <c r="K36" s="6">
-        <f>H36/$I$24*100</f>
-        <v>-2.666666666666667</v>
+        <f>G36*$L$24/100</f>
+        <v>-15461.96539340516</v>
       </c>
       <c r="L36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6">
-        <f>K36*$P$24/100</f>
-        <v>-15461.96539340516</v>
-      </c>
-      <c r="P36" s="6"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
-        <f>I35+H36</f>
+      <c r="E37" s="2">
+        <f>E35+D36</f>
         <v>24000</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="H37" s="6">
+        <f>E37/$E$24*100</f>
+        <v>4</v>
+      </c>
+      <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6">
-        <f>I37/$I$24*100</f>
-        <v>4</v>
-      </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6">
-        <f>L37*$P$24/100</f>
+        <f>H37*$L$24/100</f>
         <v>23192.94809010774</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1612,7 @@
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1653,7 +1627,7 @@
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1668,13 +1642,13 @@
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +1663,7 @@
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1704,7 +1678,7 @@
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -1713,7 +1687,7 @@
       </c>
       <c r="C48"/>
       <c r="D48">
-        <f>ABS(I33/H34)</f>
+        <f>ABS(E33/D34)</f>
         <v>4.6363636363636367</v>
       </c>
       <c r="E48"/>
@@ -1734,7 +1708,7 @@
       </c>
       <c r="C50"/>
       <c r="D50">
-        <f>I24/D5</f>
+        <f>E24/D5</f>
         <v>15</v>
       </c>
       <c r="E50"/>
@@ -1749,7 +1723,7 @@
       </c>
       <c r="C51"/>
       <c r="D51">
-        <f>ABS(H25/D6)</f>
+        <f>ABS(D25/D6)</f>
         <v>8.5166666666666675</v>
       </c>
       <c r="E51"/>
@@ -1764,7 +1738,7 @@
       </c>
       <c r="C52"/>
       <c r="D52">
-        <f>I24/D10</f>
+        <f>E24/D10</f>
         <v>2.3076923076923075</v>
       </c>
       <c r="E52"/>
@@ -1779,7 +1753,7 @@
       </c>
       <c r="C53"/>
       <c r="D53">
-        <f>I24/D11</f>
+        <f>E24/D11</f>
         <v>1.5</v>
       </c>
       <c r="E53"/>
@@ -1787,7 +1761,7 @@
         <v>75</v>
       </c>
       <c r="H53" s="6">
-        <f>I24/((C11+D11)/2)</f>
+        <f>E24/((C11+D11)/2)</f>
         <v>1.4844136566056407</v>
       </c>
     </row>
@@ -1806,7 +1780,7 @@
       </c>
       <c r="C55"/>
       <c r="D55">
-        <f>I37/I24</f>
+        <f>E37/E24</f>
         <v>0.04</v>
       </c>
       <c r="E55"/>
@@ -1821,7 +1795,7 @@
       </c>
       <c r="C56"/>
       <c r="D56">
-        <f>I26/I24</f>
+        <f>E26/E24</f>
         <v>0.14833333333333334</v>
       </c>
       <c r="E56"/>
@@ -1836,7 +1810,7 @@
       </c>
       <c r="C57"/>
       <c r="D57">
-        <f>I37/D11</f>
+        <f>E37/D11</f>
         <v>0.06</v>
       </c>
       <c r="E57"/>
@@ -1857,7 +1831,7 @@
       </c>
       <c r="C59"/>
       <c r="D59">
-        <f>I37/(D19+D20)</f>
+        <f>E37/(D19+D20)</f>
         <v>0.12</v>
       </c>
       <c r="E59"/>
@@ -1884,7 +1858,7 @@
       </c>
       <c r="C61"/>
       <c r="D61">
-        <f>D20/I37</f>
+        <f>D20/E37</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="E61"/>
@@ -1898,7 +1872,7 @@
         <v>70</v>
       </c>
       <c r="D62">
-        <f>I37/D19</f>
+        <f>E37/D19</f>
         <v>0.2</v>
       </c>
       <c r="E62"/>
@@ -1912,7 +1886,7 @@
         <v>69</v>
       </c>
       <c r="D63">
-        <f>I37/20000</f>
+        <f>E37/20000</f>
         <v>1.2</v>
       </c>
       <c r="E63"/>
@@ -1922,17 +1896,22 @@
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D73">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
         <f>1000*(1+(0.06/360))^(360*5)</f>
         <v>1349.8250652767397</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
